--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\RKK_USER02_会員登録画面_エビデンス - コピー\打鍵後のUCL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B8F266-949C-4E04-9D3C-4B5E4C16CA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE4EA55-37FD-4447-B844-D5DADD264E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="3975" windowWidth="17280" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ケース一覧" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -391,10 +391,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EB 古屋</t>
-    <rPh sb="3" eb="5">
+    <t>EB李</t>
+    <rPh sb="2" eb="3">
+      <t>リ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EB李
+EB古屋</t>
+    <rPh sb="2" eb="3">
+      <t>リ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>コヤ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-画面項目確認.xlsx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -898,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF5F290-89E5-44A4-9863-B4AF1EE4D699}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1010,9 +1025,11 @@
         <v>45069</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" ht="37.5">

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE4EA55-37FD-4447-B844-D5DADD264E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC3C1A1-01BD-4D95-87DA-710DD649C4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -410,6 +410,26 @@
   </si>
   <si>
     <t>B-画面項目確認.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EB古屋</t>
+    <rPh sb="2" eb="4">
+      <t>コヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-活性不活性確認.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D-表示非表示.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E-エラーメッセージ確認クライアント.xlsx
+E-エラーメッセージ確認サーバ.xlsx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -913,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF5F290-89E5-44A4-9863-B4AF1EE4D699}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1054,9 +1074,15 @@
       <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="I5" s="11">
+        <v>45071</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12" ht="37.5">
@@ -1081,9 +1107,15 @@
       <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="11">
+        <v>45071</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="122.45" customHeight="1">
@@ -1108,9 +1140,15 @@
       <c r="H7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="11">
+        <v>45071</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="58.15" customHeight="1">

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC3C1A1-01BD-4D95-87DA-710DD649C4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631E483C-7BFA-47E3-B5DF-5A7EB98F1DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -417,10 +417,6 @@
     <rPh sb="2" eb="4">
       <t>コヤ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C-活性不活性確認.xlsx</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -933,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF5F290-89E5-44A4-9863-B4AF1EE4D699}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1074,15 +1070,9 @@
       <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="11">
-        <v>45071</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12" ht="37.5">
@@ -1114,7 +1104,7 @@
         <v>50</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -1147,7 +1137,7 @@
         <v>50</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L7" s="1"/>
     </row>

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631E483C-7BFA-47E3-B5DF-5A7EB98F1DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C46AEA2-B072-4D8D-B615-61FAA63D5BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -388,24 +388,6 @@
   </si>
   <si>
     <t>A-画面レイアウト.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EB李</t>
-    <rPh sb="2" eb="3">
-      <t>リ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EB李
-EB古屋</t>
-    <rPh sb="2" eb="3">
-      <t>リ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コヤ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -929,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF5F290-89E5-44A4-9863-B4AF1EE4D699}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1007,8 +989,8 @@
       <c r="I3" s="11">
         <v>45069</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>47</v>
+      <c r="J3" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>46</v>
@@ -1040,11 +1022,11 @@
       <c r="I4" s="11">
         <v>45069</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L4" s="1"/>
     </row>
@@ -1101,10 +1083,10 @@
         <v>45071</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -1134,10 +1116,10 @@
         <v>45071</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="L7" s="1"/>
     </row>

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C46AEA2-B072-4D8D-B615-61FAA63D5BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ABBB9C-2D1F-45B9-93C5-9E60377A347B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,12 +402,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>D-表示非表示.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E-エラーメッセージ確認クライアント.xlsx
-E-エラーメッセージ確認サーバ.xlsx</t>
+    <t>実装されていないので打鍵不可</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ダケンフカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E-エラーメッセージ確認クライアント.xlsx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -911,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF5F290-89E5-44A4-9863-B4AF1EE4D699}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1055,7 +1060,9 @@
       <c r="I5" s="11"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="37.5">
       <c r="B6" s="4">
@@ -1079,16 +1086,12 @@
       <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="11">
-        <v>45071</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="122.45" customHeight="1">
       <c r="B7" s="4">

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ABBB9C-2D1F-45B9-93C5-9E60377A347B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AA8DF5-898A-4355-B472-352BA81B2E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -413,6 +413,10 @@
   </si>
   <si>
     <t>E-エラーメッセージ確認クライアント.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UT-USER02-E-023、UT-USER02-E-024はまだ実装されていないので打鍵不可</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -917,7 +921,7 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1124,7 +1128,9 @@
       <c r="K7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="58.15" customHeight="1">
       <c r="B8" s="4">
